--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hras-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hras-Insr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.567183666666668</v>
+        <v>9.697207333333333</v>
       </c>
       <c r="H2">
-        <v>22.701551</v>
+        <v>29.091622</v>
       </c>
       <c r="I2">
-        <v>0.2104710071241515</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="J2">
-        <v>0.2104710071241516</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.18647466666667</v>
+        <v>21.85308466666666</v>
       </c>
       <c r="N2">
-        <v>69.55942400000001</v>
+        <v>65.559254</v>
       </c>
       <c r="O2">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="P2">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="Q2">
-        <v>175.4563123851805</v>
+        <v>211.9138928855542</v>
       </c>
       <c r="R2">
-        <v>1579.106811466624</v>
+        <v>1907.225035969988</v>
       </c>
       <c r="S2">
-        <v>0.1032452100497951</v>
+        <v>0.1320117198886362</v>
       </c>
       <c r="T2">
-        <v>0.1032452100497951</v>
+        <v>0.1320117198886362</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.567183666666668</v>
+        <v>9.697207333333333</v>
       </c>
       <c r="H3">
-        <v>22.701551</v>
+        <v>29.091622</v>
       </c>
       <c r="I3">
-        <v>0.2104710071241515</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="J3">
-        <v>0.2104710071241516</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>21.625471</v>
       </c>
       <c r="O3">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="P3">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="Q3">
-        <v>54.54797031172456</v>
+        <v>69.90222532266245</v>
       </c>
       <c r="R3">
-        <v>490.9317328055211</v>
+        <v>629.1200279039621</v>
       </c>
       <c r="S3">
-        <v>0.0320981136333267</v>
+        <v>0.04354557817439209</v>
       </c>
       <c r="T3">
-        <v>0.03209811363332669</v>
+        <v>0.04354557817439208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.567183666666668</v>
+        <v>9.697207333333333</v>
       </c>
       <c r="H4">
-        <v>22.701551</v>
+        <v>29.091622</v>
       </c>
       <c r="I4">
-        <v>0.2104710071241515</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="J4">
-        <v>0.2104710071241516</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.814195333333333</v>
+        <v>11.375406</v>
       </c>
       <c r="N4">
-        <v>17.442586</v>
+        <v>34.126218</v>
       </c>
       <c r="O4">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="P4">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="Q4">
-        <v>43.99708396120956</v>
+        <v>110.309670482844</v>
       </c>
       <c r="R4">
-        <v>395.973755650886</v>
+        <v>992.7870343455961</v>
       </c>
       <c r="S4">
-        <v>0.02588956825435494</v>
+        <v>0.06871738856995745</v>
       </c>
       <c r="T4">
-        <v>0.02588956825435493</v>
+        <v>0.06871738856995743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.567183666666668</v>
+        <v>9.697207333333333</v>
       </c>
       <c r="H5">
-        <v>22.701551</v>
+        <v>29.091622</v>
       </c>
       <c r="I5">
-        <v>0.2104710071241515</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="J5">
-        <v>0.2104710071241516</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.361851666666666</v>
+        <v>3.401340666666667</v>
       </c>
       <c r="N5">
-        <v>10.085555</v>
+        <v>10.204022</v>
       </c>
       <c r="O5">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="P5">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="Q5">
-        <v>25.43974902175611</v>
+        <v>32.98350565596489</v>
       </c>
       <c r="R5">
-        <v>228.957741195805</v>
+        <v>296.851550903684</v>
       </c>
       <c r="S5">
-        <v>0.01496972206733283</v>
+        <v>0.02054706867167039</v>
       </c>
       <c r="T5">
-        <v>0.01496972206733283</v>
+        <v>0.02054706867167039</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.567183666666668</v>
+        <v>9.697207333333333</v>
       </c>
       <c r="H6">
-        <v>22.701551</v>
+        <v>29.091622</v>
       </c>
       <c r="I6">
-        <v>0.2104710071241515</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="J6">
-        <v>0.2104710071241516</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.695884666666667</v>
+        <v>9.847764666666666</v>
       </c>
       <c r="N6">
-        <v>23.087654</v>
+        <v>29.543294</v>
       </c>
       <c r="O6">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="P6">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="Q6">
-        <v>58.23617275015046</v>
+        <v>95.49581574254088</v>
       </c>
       <c r="R6">
-        <v>524.1255547513541</v>
+        <v>859.462341682868</v>
       </c>
       <c r="S6">
-        <v>0.03426839311934198</v>
+        <v>0.05948910053362762</v>
       </c>
       <c r="T6">
-        <v>0.03426839311934198</v>
+        <v>0.0594891005336276</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>25.352955</v>
       </c>
       <c r="I7">
-        <v>0.2350527491457871</v>
+        <v>0.2826325233457075</v>
       </c>
       <c r="J7">
-        <v>0.2350527491457872</v>
+        <v>0.2826325233457074</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.18647466666667</v>
+        <v>21.85308466666666</v>
       </c>
       <c r="N7">
-        <v>69.55942400000001</v>
+        <v>65.559254</v>
       </c>
       <c r="O7">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="P7">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="Q7">
-        <v>195.94854961088</v>
+        <v>184.68009072173</v>
       </c>
       <c r="R7">
-        <v>1763.53694649792</v>
+        <v>1662.12081649557</v>
       </c>
       <c r="S7">
-        <v>0.1153036268032084</v>
+        <v>0.1150464279306668</v>
       </c>
       <c r="T7">
-        <v>0.1153036268032084</v>
+        <v>0.1150464279306668</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>25.352955</v>
       </c>
       <c r="I8">
-        <v>0.2350527491457871</v>
+        <v>0.2826325233457075</v>
       </c>
       <c r="J8">
-        <v>0.2350527491457872</v>
+        <v>0.2826325233457074</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>21.625471</v>
       </c>
       <c r="O8">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="P8">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="Q8">
         <v>60.91884367964501</v>
@@ -948,10 +948,10 @@
         <v>548.269593116805</v>
       </c>
       <c r="S8">
-        <v>0.03584697937733938</v>
+        <v>0.0379493822621628</v>
       </c>
       <c r="T8">
-        <v>0.03584697937733938</v>
+        <v>0.03794938226216278</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>25.352955</v>
       </c>
       <c r="I9">
-        <v>0.2350527491457871</v>
+        <v>0.2826325233457075</v>
       </c>
       <c r="J9">
-        <v>0.2350527491457872</v>
+        <v>0.2826325233457074</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.814195333333333</v>
+        <v>11.375406</v>
       </c>
       <c r="N9">
-        <v>17.442586</v>
+        <v>34.126218</v>
       </c>
       <c r="O9">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="P9">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="Q9">
-        <v>49.13567754907</v>
+        <v>96.13338547491001</v>
       </c>
       <c r="R9">
-        <v>442.22109794163</v>
+        <v>865.2004692741901</v>
       </c>
       <c r="S9">
-        <v>0.02891331340850188</v>
+        <v>0.05988627447901138</v>
       </c>
       <c r="T9">
-        <v>0.02891331340850188</v>
+        <v>0.05988627447901135</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>25.352955</v>
       </c>
       <c r="I10">
-        <v>0.2350527491457871</v>
+        <v>0.2826325233457075</v>
       </c>
       <c r="J10">
-        <v>0.2350527491457872</v>
+        <v>0.2826325233457074</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.361851666666666</v>
+        <v>3.401340666666667</v>
       </c>
       <c r="N10">
-        <v>10.085555</v>
+        <v>10.204022</v>
       </c>
       <c r="O10">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="P10">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="Q10">
-        <v>28.410958007225</v>
+        <v>28.74467895389</v>
       </c>
       <c r="R10">
-        <v>255.698622065025</v>
+        <v>258.70211058501</v>
       </c>
       <c r="S10">
-        <v>0.01671809516167403</v>
+        <v>0.01790649237140402</v>
       </c>
       <c r="T10">
-        <v>0.01671809516167403</v>
+        <v>0.01790649237140401</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>25.352955</v>
       </c>
       <c r="I11">
-        <v>0.2350527491457871</v>
+        <v>0.2826325233457075</v>
       </c>
       <c r="J11">
-        <v>0.2350527491457872</v>
+        <v>0.2826325233457074</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.695884666666667</v>
+        <v>9.847764666666666</v>
       </c>
       <c r="N11">
-        <v>23.087654</v>
+        <v>29.543294</v>
       </c>
       <c r="O11">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="P11">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="Q11">
-        <v>65.03780587973002</v>
+        <v>83.22331148153</v>
       </c>
       <c r="R11">
-        <v>585.3402529175701</v>
+        <v>749.00980333377</v>
       </c>
       <c r="S11">
-        <v>0.03827073439506345</v>
+        <v>0.05184394630246252</v>
       </c>
       <c r="T11">
-        <v>0.03827073439506344</v>
+        <v>0.05184394630246249</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.443581333333332</v>
+        <v>3.910524</v>
       </c>
       <c r="H12">
-        <v>28.330744</v>
+        <v>11.731572</v>
       </c>
       <c r="I12">
-        <v>0.2626604773504908</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="J12">
-        <v>0.2626604773504909</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.18647466666667</v>
+        <v>21.85308466666666</v>
       </c>
       <c r="N12">
-        <v>69.55942400000001</v>
+        <v>65.559254</v>
       </c>
       <c r="O12">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="P12">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="Q12">
-        <v>218.9633593479396</v>
+        <v>85.457012063032</v>
       </c>
       <c r="R12">
-        <v>1970.670234131456</v>
+        <v>769.1131085672879</v>
       </c>
       <c r="S12">
-        <v>0.1288464217773918</v>
+        <v>0.0532354296614114</v>
       </c>
       <c r="T12">
-        <v>0.1288464217773918</v>
+        <v>0.05323542966141138</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.443581333333332</v>
+        <v>3.910524</v>
       </c>
       <c r="H13">
-        <v>28.330744</v>
+        <v>11.731572</v>
       </c>
       <c r="I13">
-        <v>0.2626604773504908</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="J13">
-        <v>0.2626604773504909</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>21.625471</v>
       </c>
       <c r="O13">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="P13">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="Q13">
-        <v>68.07396475338044</v>
+        <v>28.188974452268</v>
       </c>
       <c r="R13">
-        <v>612.6656827804239</v>
+        <v>253.700770070412</v>
       </c>
       <c r="S13">
-        <v>0.04005732648966092</v>
+        <v>0.01756031635618355</v>
       </c>
       <c r="T13">
-        <v>0.04005732648966091</v>
+        <v>0.01756031635618355</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.443581333333332</v>
+        <v>3.910524</v>
       </c>
       <c r="H14">
-        <v>28.330744</v>
+        <v>11.731572</v>
       </c>
       <c r="I14">
-        <v>0.2626604773504908</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="J14">
-        <v>0.2626604773504909</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.814195333333333</v>
+        <v>11.375406</v>
       </c>
       <c r="N14">
-        <v>17.442586</v>
+        <v>34.126218</v>
       </c>
       <c r="O14">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="P14">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="Q14">
-        <v>54.90682651822044</v>
+        <v>44.483798172744</v>
       </c>
       <c r="R14">
-        <v>494.1614386639839</v>
+        <v>400.354183554696</v>
       </c>
       <c r="S14">
-        <v>0.03230927836096557</v>
+        <v>0.02771117374137588</v>
       </c>
       <c r="T14">
-        <v>0.03230927836096557</v>
+        <v>0.02771117374137587</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.443581333333332</v>
+        <v>3.910524</v>
       </c>
       <c r="H15">
-        <v>28.330744</v>
+        <v>11.731572</v>
       </c>
       <c r="I15">
-        <v>0.2626604773504908</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="J15">
-        <v>0.2626604773504909</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.361851666666666</v>
+        <v>3.401340666666667</v>
       </c>
       <c r="N15">
-        <v>10.085555</v>
+        <v>10.204022</v>
       </c>
       <c r="O15">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="P15">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="Q15">
-        <v>31.74791964476888</v>
+        <v>13.301024309176</v>
       </c>
       <c r="R15">
-        <v>285.7312768029199</v>
+        <v>119.709218782584</v>
       </c>
       <c r="S15">
-        <v>0.01868169111620422</v>
+        <v>0.008285870602561989</v>
       </c>
       <c r="T15">
-        <v>0.01868169111620422</v>
+        <v>0.008285870602561987</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.443581333333332</v>
+        <v>3.910524</v>
       </c>
       <c r="H16">
-        <v>28.330744</v>
+        <v>11.731572</v>
       </c>
       <c r="I16">
-        <v>0.2626604773504908</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="J16">
-        <v>0.2626604773504909</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.695884666666667</v>
+        <v>9.847764666666666</v>
       </c>
       <c r="N16">
-        <v>23.087654</v>
+        <v>29.543294</v>
       </c>
       <c r="O16">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="P16">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="Q16">
-        <v>72.67671278161956</v>
+        <v>38.509920075352</v>
       </c>
       <c r="R16">
-        <v>654.0904150345759</v>
+        <v>346.589280678168</v>
       </c>
       <c r="S16">
-        <v>0.04276575960626827</v>
+        <v>0.02398974749931409</v>
       </c>
       <c r="T16">
-        <v>0.04276575960626827</v>
+        <v>0.02398974749931409</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.103880666666666</v>
+        <v>3.066674</v>
       </c>
       <c r="H17">
-        <v>12.311642</v>
+        <v>9.200022000000001</v>
       </c>
       <c r="I17">
-        <v>0.1141439054579135</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="J17">
-        <v>0.1141439054579136</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.18647466666667</v>
+        <v>21.85308466666666</v>
       </c>
       <c r="N17">
-        <v>69.55942400000001</v>
+        <v>65.559254</v>
       </c>
       <c r="O17">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="P17">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="Q17">
-        <v>95.15452511268977</v>
+        <v>67.01628656706534</v>
       </c>
       <c r="R17">
-        <v>856.390726014208</v>
+        <v>603.146579103588</v>
       </c>
       <c r="S17">
-        <v>0.05599256475242062</v>
+        <v>0.04174778316703315</v>
       </c>
       <c r="T17">
-        <v>0.05599256475242061</v>
+        <v>0.04174778316703314</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.103880666666666</v>
+        <v>3.066674</v>
       </c>
       <c r="H18">
-        <v>12.311642</v>
+        <v>9.200022000000001</v>
       </c>
       <c r="I18">
-        <v>0.1141439054579135</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="J18">
-        <v>0.1141439054579136</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>21.625471</v>
       </c>
       <c r="O18">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="P18">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="Q18">
-        <v>29.58278411482022</v>
+        <v>22.10608988448467</v>
       </c>
       <c r="R18">
-        <v>266.245057033382</v>
+        <v>198.954808960362</v>
       </c>
       <c r="S18">
-        <v>0.01740764249671036</v>
+        <v>0.01377098455380477</v>
       </c>
       <c r="T18">
-        <v>0.01740764249671035</v>
+        <v>0.01377098455380477</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.103880666666666</v>
+        <v>3.066674</v>
       </c>
       <c r="H19">
-        <v>12.311642</v>
+        <v>9.200022000000001</v>
       </c>
       <c r="I19">
-        <v>0.1141439054579135</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="J19">
-        <v>0.1141439054579136</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.814195333333333</v>
+        <v>11.375406</v>
       </c>
       <c r="N19">
-        <v>17.442586</v>
+        <v>34.126218</v>
       </c>
       <c r="O19">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="P19">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="Q19">
-        <v>23.86076382069022</v>
+        <v>34.884661819644</v>
       </c>
       <c r="R19">
-        <v>214.746874386212</v>
+        <v>313.961956376796</v>
       </c>
       <c r="S19">
-        <v>0.01404058673709928</v>
+        <v>0.02173139354781102</v>
       </c>
       <c r="T19">
-        <v>0.01404058673709928</v>
+        <v>0.02173139354781101</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.103880666666666</v>
+        <v>3.066674</v>
       </c>
       <c r="H20">
-        <v>12.311642</v>
+        <v>9.200022000000001</v>
       </c>
       <c r="I20">
-        <v>0.1141439054579135</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="J20">
-        <v>0.1141439054579136</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.361851666666666</v>
+        <v>3.401340666666667</v>
       </c>
       <c r="N20">
-        <v>10.085555</v>
+        <v>10.204022</v>
       </c>
       <c r="O20">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="P20">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="Q20">
-        <v>13.79663805903444</v>
+        <v>10.43080298760933</v>
       </c>
       <c r="R20">
-        <v>124.16974253131</v>
+        <v>93.877226888484</v>
       </c>
       <c r="S20">
-        <v>0.008118469920072936</v>
+        <v>0.006497866767788968</v>
       </c>
       <c r="T20">
-        <v>0.008118469920072934</v>
+        <v>0.006497866767788966</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.103880666666666</v>
+        <v>3.066674</v>
       </c>
       <c r="H21">
-        <v>12.311642</v>
+        <v>9.200022000000001</v>
       </c>
       <c r="I21">
-        <v>0.1141439054579135</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="J21">
-        <v>0.1141439054579136</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.695884666666667</v>
+        <v>9.847764666666666</v>
       </c>
       <c r="N21">
-        <v>23.087654</v>
+        <v>29.543294</v>
       </c>
       <c r="O21">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="P21">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="Q21">
-        <v>31.58299229642978</v>
+        <v>30.19988386138534</v>
       </c>
       <c r="R21">
-        <v>284.246930667868</v>
+        <v>271.798954752468</v>
       </c>
       <c r="S21">
-        <v>0.01858464155161036</v>
+        <v>0.01881301199601679</v>
       </c>
       <c r="T21">
-        <v>0.01858464155161036</v>
+        <v>0.01881301199601678</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.387937333333333</v>
+        <v>4.775574</v>
       </c>
       <c r="H22">
-        <v>19.163812</v>
+        <v>14.326722</v>
       </c>
       <c r="I22">
-        <v>0.1776718609216568</v>
+        <v>0.1597130429227071</v>
       </c>
       <c r="J22">
-        <v>0.1776718609216569</v>
+        <v>0.159713042922707</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>23.18647466666667</v>
+        <v>21.85308466666666</v>
       </c>
       <c r="N22">
-        <v>69.55942400000001</v>
+        <v>65.559254</v>
       </c>
       <c r="O22">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="P22">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="Q22">
-        <v>148.1137471515876</v>
+        <v>104.361022953932</v>
       </c>
       <c r="R22">
-        <v>1333.023724364288</v>
+        <v>939.2492065853879</v>
       </c>
       <c r="S22">
-        <v>0.08715579809039406</v>
+        <v>0.06501167970580543</v>
       </c>
       <c r="T22">
-        <v>0.08715579809039406</v>
+        <v>0.06501167970580542</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.387937333333333</v>
+        <v>4.775574</v>
       </c>
       <c r="H23">
-        <v>19.163812</v>
+        <v>14.326722</v>
       </c>
       <c r="I23">
-        <v>0.1776718609216568</v>
+        <v>0.1597130429227071</v>
       </c>
       <c r="J23">
-        <v>0.1776718609216569</v>
+        <v>0.159713042922707</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>21.625471</v>
       </c>
       <c r="O23">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="P23">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="Q23">
-        <v>46.04738451727245</v>
+        <v>34.424679015118</v>
       </c>
       <c r="R23">
-        <v>414.426460655452</v>
+        <v>309.822111136062</v>
       </c>
       <c r="S23">
-        <v>0.02709604357974086</v>
+        <v>0.02144484734587102</v>
       </c>
       <c r="T23">
-        <v>0.02709604357974085</v>
+        <v>0.02144484734587102</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.387937333333333</v>
+        <v>4.775574</v>
       </c>
       <c r="H24">
-        <v>19.163812</v>
+        <v>14.326722</v>
       </c>
       <c r="I24">
-        <v>0.1776718609216568</v>
+        <v>0.1597130429227071</v>
       </c>
       <c r="J24">
-        <v>0.1776718609216569</v>
+        <v>0.159713042922707</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.814195333333333</v>
+        <v>11.375406</v>
       </c>
       <c r="N24">
-        <v>17.442586</v>
+        <v>34.126218</v>
       </c>
       <c r="O24">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="P24">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="Q24">
-        <v>37.14071543309245</v>
+        <v>54.32409313304399</v>
       </c>
       <c r="R24">
-        <v>334.266438897832</v>
+        <v>488.916838197396</v>
       </c>
       <c r="S24">
-        <v>0.02185501857505798</v>
+        <v>0.033841183644135</v>
       </c>
       <c r="T24">
-        <v>0.02185501857505798</v>
+        <v>0.03384118364413499</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.387937333333333</v>
+        <v>4.775574</v>
       </c>
       <c r="H25">
-        <v>19.163812</v>
+        <v>14.326722</v>
       </c>
       <c r="I25">
-        <v>0.1776718609216568</v>
+        <v>0.1597130429227071</v>
       </c>
       <c r="J25">
-        <v>0.1776718609216569</v>
+        <v>0.159713042922707</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.361851666666666</v>
+        <v>3.401340666666667</v>
       </c>
       <c r="N25">
-        <v>10.085555</v>
+        <v>10.204022</v>
       </c>
       <c r="O25">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="P25">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="Q25">
-        <v>21.47529777062889</v>
+        <v>16.243354052876</v>
       </c>
       <c r="R25">
-        <v>193.27767993566</v>
+        <v>146.190186475884</v>
       </c>
       <c r="S25">
-        <v>0.01263688720610401</v>
+        <v>0.01011879436539946</v>
       </c>
       <c r="T25">
-        <v>0.01263688720610401</v>
+        <v>0.01011879436539946</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.387937333333333</v>
+        <v>4.775574</v>
       </c>
       <c r="H26">
-        <v>19.163812</v>
+        <v>14.326722</v>
       </c>
       <c r="I26">
-        <v>0.1776718609216568</v>
+        <v>0.1597130429227071</v>
       </c>
       <c r="J26">
-        <v>0.1776718609216569</v>
+        <v>0.159713042922707</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.695884666666667</v>
+        <v>9.847764666666666</v>
       </c>
       <c r="N26">
-        <v>23.087654</v>
+        <v>29.543294</v>
       </c>
       <c r="O26">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="P26">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="Q26">
-        <v>49.16082897522756</v>
+        <v>47.028728900252</v>
       </c>
       <c r="R26">
-        <v>442.447460777048</v>
+        <v>423.258560102268</v>
       </c>
       <c r="S26">
-        <v>0.02892811347035994</v>
+        <v>0.02929653786149616</v>
       </c>
       <c r="T26">
-        <v>0.02892811347035994</v>
+        <v>0.02929653786149615</v>
       </c>
     </row>
   </sheetData>
